--- a/FA_loadings.xlsx
+++ b/FA_loadings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\Gen-Scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16866C1-B60C-41D9-85A7-67E8D05965C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C9494-1135-43AC-A5E4-C0AC26A72C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="5970" activeTab="2" xr2:uid="{953D2B0A-C267-41D0-BE56-2FF7D0D72DD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="5970" activeTab="3" xr2:uid="{953D2B0A-C267-41D0-BE56-2FF7D0D72DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="5 Factors" sheetId="1" r:id="rId1"/>
     <sheet name="4 Factors" sheetId="2" r:id="rId2"/>
     <sheet name="3 Factors" sheetId="3" r:id="rId3"/>
+    <sheet name="2 Factors" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="72">
   <si>
     <t>ML2</t>
   </si>
@@ -326,7 +327,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9747,10 +9778,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16693,7 +16724,5715 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586C92D-CD69-4B80-ADDA-D604C537C67F}">
+  <dimension ref="A1:H246"/>
+  <sheetViews>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.36</v>
+      </c>
+      <c r="D2">
+        <v>0.11</v>
+      </c>
+      <c r="E2">
+        <v>0.27</v>
+      </c>
+      <c r="F2">
+        <v>0.371</v>
+      </c>
+      <c r="G2">
+        <v>0.63</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.46</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.47</v>
+      </c>
+      <c r="F3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.36</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>0.24</v>
+      </c>
+      <c r="F4">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.46</v>
+      </c>
+      <c r="H4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.59</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.17</v>
+      </c>
+      <c r="F5">
+        <v>0.53</v>
+      </c>
+      <c r="G5">
+        <v>0.47</v>
+      </c>
+      <c r="H5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>-0.06</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>0.47</v>
+      </c>
+      <c r="G6">
+        <v>0.53</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.49</v>
+      </c>
+      <c r="D7">
+        <v>0.04</v>
+      </c>
+      <c r="E7">
+        <v>0.31</v>
+      </c>
+      <c r="F7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.48</v>
+      </c>
+      <c r="H7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.69</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>-0.08</v>
+      </c>
+      <c r="F8">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.78</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-0.15</v>
+      </c>
+      <c r="F9">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.48</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.71</v>
+      </c>
+      <c r="D10">
+        <v>-0.02</v>
+      </c>
+      <c r="E10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.23</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+      <c r="E11">
+        <v>0.43</v>
+      </c>
+      <c r="F11">
+        <v>0.373</v>
+      </c>
+      <c r="G11">
+        <v>0.63</v>
+      </c>
+      <c r="H11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+      <c r="D12">
+        <v>0.66</v>
+      </c>
+      <c r="E12">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.41</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.95</v>
+      </c>
+      <c r="E13">
+        <v>-0.01</v>
+      </c>
+      <c r="F13">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.17</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>-0.16</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.41</v>
+      </c>
+      <c r="F14">
+        <v>0.152</v>
+      </c>
+      <c r="G14">
+        <v>0.85</v>
+      </c>
+      <c r="H14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0.26</v>
+      </c>
+      <c r="D15">
+        <v>0.02</v>
+      </c>
+      <c r="E15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.43</v>
+      </c>
+      <c r="H15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0.59</v>
+      </c>
+      <c r="D16">
+        <v>-0.01</v>
+      </c>
+      <c r="E16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.439</v>
+      </c>
+      <c r="G16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H16">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.47</v>
+      </c>
+      <c r="H17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>-0.05</v>
+      </c>
+      <c r="D18">
+        <v>0.92</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.19</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.76</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>0.53</v>
+      </c>
+      <c r="D20">
+        <v>0.05</v>
+      </c>
+      <c r="E20">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.252</v>
+      </c>
+      <c r="G20">
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>0.66</v>
+      </c>
+      <c r="D21">
+        <v>-0.02</v>
+      </c>
+      <c r="E21">
+        <v>-0.03</v>
+      </c>
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>0.63</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>0.6</v>
+      </c>
+      <c r="D23">
+        <v>-0.02</v>
+      </c>
+      <c r="E23">
+        <v>0.03</v>
+      </c>
+      <c r="F23">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.08</v>
+      </c>
+      <c r="F24">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.62</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>0.32</v>
+      </c>
+      <c r="D25">
+        <v>0.17</v>
+      </c>
+      <c r="E25">
+        <v>0.33</v>
+      </c>
+      <c r="F25">
+        <v>0.434</v>
+      </c>
+      <c r="G25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0.35</v>
+      </c>
+      <c r="D26">
+        <v>-0.06</v>
+      </c>
+      <c r="E26">
+        <v>0.4</v>
+      </c>
+      <c r="F26">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.61</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>0.13</v>
+      </c>
+      <c r="E27">
+        <v>-0.08</v>
+      </c>
+      <c r="F27">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.6</v>
+      </c>
+      <c r="H27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>-0.18</v>
+      </c>
+      <c r="D28">
+        <v>-0.05</v>
+      </c>
+      <c r="E28">
+        <v>0.63</v>
+      </c>
+      <c r="F28">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D29">
+        <v>-0.04</v>
+      </c>
+      <c r="E29">
+        <v>0.38</v>
+      </c>
+      <c r="F29">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.84</v>
+      </c>
+      <c r="H29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>0.45</v>
+      </c>
+      <c r="D30">
+        <v>0.18</v>
+      </c>
+      <c r="E30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G30">
+        <v>0.44</v>
+      </c>
+      <c r="H30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>0.25</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>0.54</v>
+      </c>
+      <c r="F31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.44</v>
+      </c>
+      <c r="H31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>-0.26</v>
+      </c>
+      <c r="D32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.44</v>
+      </c>
+      <c r="F32">
+        <v>0.182</v>
+      </c>
+      <c r="G32">
+        <v>0.82</v>
+      </c>
+      <c r="H32">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>0.45</v>
+      </c>
+      <c r="D33">
+        <v>-0.01</v>
+      </c>
+      <c r="E33">
+        <v>-0.06</v>
+      </c>
+      <c r="F33">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.82</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>0.15</v>
+      </c>
+      <c r="D34">
+        <v>0.39</v>
+      </c>
+      <c r="E34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.73</v>
+      </c>
+      <c r="H34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>0.24</v>
+      </c>
+      <c r="D35">
+        <v>0.41</v>
+      </c>
+      <c r="E35">
+        <v>-0.01</v>
+      </c>
+      <c r="F35">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.69</v>
+      </c>
+      <c r="H35">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>0.08</v>
+      </c>
+      <c r="E36">
+        <v>-0.03</v>
+      </c>
+      <c r="F36">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>0.02</v>
+      </c>
+      <c r="D37">
+        <v>-0.02</v>
+      </c>
+      <c r="E37">
+        <v>0.7</v>
+      </c>
+      <c r="F37">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.51</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>-0.11</v>
+      </c>
+      <c r="D38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E38">
+        <v>0.12</v>
+      </c>
+      <c r="F38">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.66</v>
+      </c>
+      <c r="H38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>-0.26</v>
+      </c>
+      <c r="D39">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F39">
+        <v>0.245</v>
+      </c>
+      <c r="G39">
+        <v>0.76</v>
+      </c>
+      <c r="H39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>-0.03</v>
+      </c>
+      <c r="D40">
+        <v>0.94</v>
+      </c>
+      <c r="E40">
+        <v>-0.06</v>
+      </c>
+      <c r="F40">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G40">
+        <v>0.18</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>0.04</v>
+      </c>
+      <c r="D41">
+        <v>0.79</v>
+      </c>
+      <c r="E41">
+        <v>-0.06</v>
+      </c>
+      <c r="F41">
+        <v>0.625</v>
+      </c>
+      <c r="G41">
+        <v>0.38</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>0.88</v>
+      </c>
+      <c r="E42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.23</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>0.06</v>
+      </c>
+      <c r="D43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E43">
+        <v>-0.02</v>
+      </c>
+      <c r="F43">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.67</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>0.47</v>
+      </c>
+      <c r="D44">
+        <v>0.23</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>0.442</v>
+      </c>
+      <c r="G44">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>0.06</v>
+      </c>
+      <c r="D45">
+        <v>0.11</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.95</v>
+      </c>
+      <c r="H45">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>0.05</v>
+      </c>
+      <c r="D46">
+        <v>0.21</v>
+      </c>
+      <c r="E46">
+        <v>0.47</v>
+      </c>
+      <c r="F46">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.62</v>
+      </c>
+      <c r="H46">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>0.32</v>
+      </c>
+      <c r="D47">
+        <v>0.04</v>
+      </c>
+      <c r="E47">
+        <v>0.39</v>
+      </c>
+      <c r="F47">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G47">
+        <v>0.6</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.53</v>
+      </c>
+      <c r="F48">
+        <v>0.59</v>
+      </c>
+      <c r="G48">
+        <v>0.41</v>
+      </c>
+      <c r="H48">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>0.16</v>
+      </c>
+      <c r="F49">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G49">
+        <v>0.41</v>
+      </c>
+      <c r="H49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>-0.03</v>
+      </c>
+      <c r="D50">
+        <v>0.77</v>
+      </c>
+      <c r="E50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G50">
+        <v>0.38</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D51">
+        <v>0.18</v>
+      </c>
+      <c r="E51">
+        <v>0.12</v>
+      </c>
+      <c r="F51">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.96</v>
+      </c>
+      <c r="H51">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>-0.21</v>
+      </c>
+      <c r="D52">
+        <v>0.18</v>
+      </c>
+      <c r="E52">
+        <v>0.45</v>
+      </c>
+      <c r="F52">
+        <v>0.219</v>
+      </c>
+      <c r="G52">
+        <v>0.78</v>
+      </c>
+      <c r="H52">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>0.37</v>
+      </c>
+      <c r="D53">
+        <v>0.06</v>
+      </c>
+      <c r="E53">
+        <v>0.47</v>
+      </c>
+      <c r="F53">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G53">
+        <v>0.42</v>
+      </c>
+      <c r="H53">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>0.11</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F54">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.87</v>
+      </c>
+      <c r="H54">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>0.61</v>
+      </c>
+      <c r="D55">
+        <v>0.11</v>
+      </c>
+      <c r="E55">
+        <v>-0.01</v>
+      </c>
+      <c r="F55">
+        <v>0.435</v>
+      </c>
+      <c r="G55">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H55">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>0.4</v>
+      </c>
+      <c r="D56">
+        <v>0.17</v>
+      </c>
+      <c r="E56">
+        <v>0.08</v>
+      </c>
+      <c r="F56">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G56">
+        <v>0.7</v>
+      </c>
+      <c r="H56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>0.27</v>
+      </c>
+      <c r="D57">
+        <v>0.17</v>
+      </c>
+      <c r="E57">
+        <v>0.13</v>
+      </c>
+      <c r="F57">
+        <v>0.217</v>
+      </c>
+      <c r="G57">
+        <v>0.78</v>
+      </c>
+      <c r="H57">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>0.23</v>
+      </c>
+      <c r="D58">
+        <v>0.41</v>
+      </c>
+      <c r="E58">
+        <v>0.27</v>
+      </c>
+      <c r="F58">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G58">
+        <v>0.47</v>
+      </c>
+      <c r="H58">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>-0.02</v>
+      </c>
+      <c r="E59">
+        <v>0.05</v>
+      </c>
+      <c r="F59">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.95</v>
+      </c>
+      <c r="H59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>0.39</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+      <c r="E64">
+        <v>0.24</v>
+      </c>
+      <c r="F64">
+        <v>0.36</v>
+      </c>
+      <c r="G64">
+        <v>0.64</v>
+      </c>
+      <c r="H64">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D65">
+        <v>0.03</v>
+      </c>
+      <c r="E65">
+        <v>0.24</v>
+      </c>
+      <c r="F65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G65">
+        <v>0.45</v>
+      </c>
+      <c r="H65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>0.61</v>
+      </c>
+      <c r="D66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="F66">
+        <v>0.52</v>
+      </c>
+      <c r="G66">
+        <v>0.48</v>
+      </c>
+      <c r="H66">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>0.71</v>
+      </c>
+      <c r="D67">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+      <c r="F67">
+        <v>0.47</v>
+      </c>
+      <c r="G67">
+        <v>0.53</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>0.69</v>
+      </c>
+      <c r="D68">
+        <v>0.03</v>
+      </c>
+      <c r="E68">
+        <v>-0.09</v>
+      </c>
+      <c r="F68">
+        <v>0.45</v>
+      </c>
+      <c r="G68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>0.79</v>
+      </c>
+      <c r="D69">
+        <v>-0.02</v>
+      </c>
+      <c r="E69">
+        <v>-0.13</v>
+      </c>
+      <c r="F69">
+        <v>0.53</v>
+      </c>
+      <c r="G69">
+        <v>0.47</v>
+      </c>
+      <c r="H69">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>0.72</v>
+      </c>
+      <c r="D70">
+        <v>-0.04</v>
+      </c>
+      <c r="E70">
+        <v>-0.05</v>
+      </c>
+      <c r="F70">
+        <v>0.46</v>
+      </c>
+      <c r="G70">
+        <v>0.54</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>0.26</v>
+      </c>
+      <c r="D71">
+        <v>0.05</v>
+      </c>
+      <c r="E71">
+        <v>0.42</v>
+      </c>
+      <c r="F71">
+        <v>0.38</v>
+      </c>
+      <c r="G71">
+        <v>0.62</v>
+      </c>
+      <c r="H71">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>0.15</v>
+      </c>
+      <c r="D72">
+        <v>0.65</v>
+      </c>
+      <c r="E72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.59</v>
+      </c>
+      <c r="G72">
+        <v>0.41</v>
+      </c>
+      <c r="H72">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D73">
+        <v>0.95</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.83</v>
+      </c>
+      <c r="G73">
+        <v>0.17</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>-0.13</v>
+      </c>
+      <c r="D74">
+        <v>0.08</v>
+      </c>
+      <c r="E74">
+        <v>0.4</v>
+      </c>
+      <c r="F74">
+        <v>0.16</v>
+      </c>
+      <c r="G74">
+        <v>0.84</v>
+      </c>
+      <c r="H74">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>0.31</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F75">
+        <v>0.59</v>
+      </c>
+      <c r="G75">
+        <v>0.41</v>
+      </c>
+      <c r="H75">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>0.61</v>
+      </c>
+      <c r="D76">
+        <v>-0.03</v>
+      </c>
+      <c r="E76">
+        <v>0.16</v>
+      </c>
+      <c r="F76">
+        <v>0.45</v>
+      </c>
+      <c r="G76">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H76">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>0.61</v>
+      </c>
+      <c r="D77">
+        <v>0.02</v>
+      </c>
+      <c r="E77">
+        <v>0.2</v>
+      </c>
+      <c r="F77">
+        <v>0.53</v>
+      </c>
+      <c r="G77">
+        <v>0.47</v>
+      </c>
+      <c r="H77">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>-0.04</v>
+      </c>
+      <c r="D78">
+        <v>0.92</v>
+      </c>
+      <c r="E78">
+        <v>0.02</v>
+      </c>
+      <c r="F78">
+        <v>0.82</v>
+      </c>
+      <c r="G78">
+        <v>0.18</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>0.11</v>
+      </c>
+      <c r="D79">
+        <v>0.76</v>
+      </c>
+      <c r="E79">
+        <v>0.05</v>
+      </c>
+      <c r="F79">
+        <v>0.71</v>
+      </c>
+      <c r="G79">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>0.52</v>
+      </c>
+      <c r="D80">
+        <v>0.05</v>
+      </c>
+      <c r="E80">
+        <v>-0.15</v>
+      </c>
+      <c r="F80">
+        <v>0.25</v>
+      </c>
+      <c r="G80">
+        <v>0.75</v>
+      </c>
+      <c r="H80">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>0.66</v>
+      </c>
+      <c r="D81">
+        <v>-0.03</v>
+      </c>
+      <c r="E81">
+        <v>-0.04</v>
+      </c>
+      <c r="F81">
+        <v>0.39</v>
+      </c>
+      <c r="G81">
+        <v>0.61</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>0.64</v>
+      </c>
+      <c r="D82">
+        <v>0.02</v>
+      </c>
+      <c r="E82">
+        <v>0.04</v>
+      </c>
+      <c r="F82">
+        <v>0.45</v>
+      </c>
+      <c r="G82">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>0.6</v>
+      </c>
+      <c r="D83">
+        <v>-0.03</v>
+      </c>
+      <c r="E83">
+        <v>0.03</v>
+      </c>
+      <c r="F83">
+        <v>0.37</v>
+      </c>
+      <c r="G83">
+        <v>0.63</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D84">
+        <v>-0.01</v>
+      </c>
+      <c r="E84">
+        <v>0.08</v>
+      </c>
+      <c r="F84">
+        <v>0.37</v>
+      </c>
+      <c r="G84">
+        <v>0.63</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85">
+        <v>0.6</v>
+      </c>
+      <c r="D85">
+        <v>0.11</v>
+      </c>
+      <c r="E85">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.4</v>
+      </c>
+      <c r="G85">
+        <v>0.6</v>
+      </c>
+      <c r="H85">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D86">
+        <v>-0.06</v>
+      </c>
+      <c r="E86">
+        <v>0.61</v>
+      </c>
+      <c r="F86">
+        <v>0.3</v>
+      </c>
+      <c r="G86">
+        <v>0.7</v>
+      </c>
+      <c r="H86">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87">
+        <v>0.1</v>
+      </c>
+      <c r="D87">
+        <v>-0.03</v>
+      </c>
+      <c r="E87">
+        <v>0.32</v>
+      </c>
+      <c r="F87">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G87">
+        <v>0.86</v>
+      </c>
+      <c r="H87">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88">
+        <v>0.48</v>
+      </c>
+      <c r="D88">
+        <v>0.17</v>
+      </c>
+      <c r="E88">
+        <v>0.27</v>
+      </c>
+      <c r="F88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G88">
+        <v>0.44</v>
+      </c>
+      <c r="H88">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>0.3</v>
+      </c>
+      <c r="D89">
+        <v>0.08</v>
+      </c>
+      <c r="E89">
+        <v>0.53</v>
+      </c>
+      <c r="F89">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G89">
+        <v>0.43</v>
+      </c>
+      <c r="H89">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>-0.21</v>
+      </c>
+      <c r="D90">
+        <v>0.11</v>
+      </c>
+      <c r="E90">
+        <v>0.45</v>
+      </c>
+      <c r="F90">
+        <v>0.19</v>
+      </c>
+      <c r="G90">
+        <v>0.81</v>
+      </c>
+      <c r="H90">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91">
+        <v>0.45</v>
+      </c>
+      <c r="D91">
+        <v>-0.02</v>
+      </c>
+      <c r="E91">
+        <v>-0.05</v>
+      </c>
+      <c r="F91">
+        <v>0.18</v>
+      </c>
+      <c r="G91">
+        <v>0.82</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>0.16</v>
+      </c>
+      <c r="D92">
+        <v>0.38</v>
+      </c>
+      <c r="E92">
+        <v>0.06</v>
+      </c>
+      <c r="F92">
+        <v>0.27</v>
+      </c>
+      <c r="G92">
+        <v>0.73</v>
+      </c>
+      <c r="H92">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93">
+        <v>0.24</v>
+      </c>
+      <c r="D93">
+        <v>0.41</v>
+      </c>
+      <c r="E93">
+        <v>-0.03</v>
+      </c>
+      <c r="F93">
+        <v>0.3</v>
+      </c>
+      <c r="G93">
+        <v>0.7</v>
+      </c>
+      <c r="H93">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94">
+        <v>0.62</v>
+      </c>
+      <c r="D94">
+        <v>0.06</v>
+      </c>
+      <c r="E94">
+        <v>-0.02</v>
+      </c>
+      <c r="F94">
+        <v>0.41</v>
+      </c>
+      <c r="G94">
+        <v>0.59</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D95">
+        <v>-0.04</v>
+      </c>
+      <c r="E95">
+        <v>0.69</v>
+      </c>
+      <c r="F95">
+        <v>0.5</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96">
+        <v>-0.1</v>
+      </c>
+      <c r="D96">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E96">
+        <v>0.11</v>
+      </c>
+      <c r="F96">
+        <v>0.34</v>
+      </c>
+      <c r="G96">
+        <v>0.66</v>
+      </c>
+      <c r="H96">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97">
+        <v>-0.21</v>
+      </c>
+      <c r="D97">
+        <v>0.03</v>
+      </c>
+      <c r="E97">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F97">
+        <v>0.26</v>
+      </c>
+      <c r="G97">
+        <v>0.74</v>
+      </c>
+      <c r="H97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98">
+        <v>-0.03</v>
+      </c>
+      <c r="D98">
+        <v>0.94</v>
+      </c>
+      <c r="E98">
+        <v>-0.05</v>
+      </c>
+      <c r="F98">
+        <v>0.82</v>
+      </c>
+      <c r="G98">
+        <v>0.18</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99">
+        <v>0.04</v>
+      </c>
+      <c r="D99">
+        <v>0.79</v>
+      </c>
+      <c r="E99">
+        <v>-0.06</v>
+      </c>
+      <c r="F99">
+        <v>0.62</v>
+      </c>
+      <c r="G99">
+        <v>0.38</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>0.04</v>
+      </c>
+      <c r="D100">
+        <v>0.88</v>
+      </c>
+      <c r="E100">
+        <v>-0.06</v>
+      </c>
+      <c r="F100">
+        <v>0.77</v>
+      </c>
+      <c r="G100">
+        <v>0.23</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101">
+        <v>0.05</v>
+      </c>
+      <c r="D101">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E101">
+        <v>-0.01</v>
+      </c>
+      <c r="F101">
+        <v>0.33</v>
+      </c>
+      <c r="G101">
+        <v>0.67</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <v>0.48</v>
+      </c>
+      <c r="D102">
+        <v>0.22</v>
+      </c>
+      <c r="E102">
+        <v>0.08</v>
+      </c>
+      <c r="F102">
+        <v>0.44</v>
+      </c>
+      <c r="G102">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H102">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103">
+        <v>0.09</v>
+      </c>
+      <c r="D103">
+        <v>0.21</v>
+      </c>
+      <c r="E103">
+        <v>0.44</v>
+      </c>
+      <c r="F103">
+        <v>0.37</v>
+      </c>
+      <c r="G103">
+        <v>0.63</v>
+      </c>
+      <c r="H103">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104">
+        <v>0.3</v>
+      </c>
+      <c r="D104">
+        <v>0.13</v>
+      </c>
+      <c r="E104">
+        <v>0.49</v>
+      </c>
+      <c r="F104">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G104">
+        <v>0.43</v>
+      </c>
+      <c r="H104">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D105">
+        <v>0.19</v>
+      </c>
+      <c r="E105">
+        <v>0.13</v>
+      </c>
+      <c r="F105">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G105">
+        <v>0.42</v>
+      </c>
+      <c r="H105">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106">
+        <v>-0.02</v>
+      </c>
+      <c r="D106">
+        <v>0.77</v>
+      </c>
+      <c r="E106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F106">
+        <v>0.62</v>
+      </c>
+      <c r="G106">
+        <v>0.38</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107">
+        <v>-0.17</v>
+      </c>
+      <c r="D107">
+        <v>0.17</v>
+      </c>
+      <c r="E107">
+        <v>0.44</v>
+      </c>
+      <c r="F107">
+        <v>0.22</v>
+      </c>
+      <c r="G107">
+        <v>0.78</v>
+      </c>
+      <c r="H107">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108">
+        <v>0.62</v>
+      </c>
+      <c r="D108">
+        <v>0.1</v>
+      </c>
+      <c r="E108">
+        <v>-0.04</v>
+      </c>
+      <c r="F108">
+        <v>0.43</v>
+      </c>
+      <c r="G108">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H108">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109">
+        <v>0.41</v>
+      </c>
+      <c r="D109">
+        <v>0.17</v>
+      </c>
+      <c r="E109">
+        <v>0.04</v>
+      </c>
+      <c r="F109">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G109">
+        <v>0.71</v>
+      </c>
+      <c r="H109">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110">
+        <v>0.26</v>
+      </c>
+      <c r="D110">
+        <v>0.4</v>
+      </c>
+      <c r="E110">
+        <v>0.24</v>
+      </c>
+      <c r="F110">
+        <v>0.52</v>
+      </c>
+      <c r="G110">
+        <v>0.48</v>
+      </c>
+      <c r="H110">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>0.47</v>
+      </c>
+      <c r="D114">
+        <v>0.06</v>
+      </c>
+      <c r="E114">
+        <v>0.24</v>
+      </c>
+      <c r="F114">
+        <v>0.38</v>
+      </c>
+      <c r="G114">
+        <v>0.62</v>
+      </c>
+      <c r="H114">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>0.69</v>
+      </c>
+      <c r="D115">
+        <v>0.04</v>
+      </c>
+      <c r="E115">
+        <v>0.04</v>
+      </c>
+      <c r="F115">
+        <v>0.53</v>
+      </c>
+      <c r="G115">
+        <v>0.47</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>0.69</v>
+      </c>
+      <c r="D116">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E116">
+        <v>-0.01</v>
+      </c>
+      <c r="F116">
+        <v>0.52</v>
+      </c>
+      <c r="G116">
+        <v>0.48</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>0.74</v>
+      </c>
+      <c r="D117">
+        <v>-0.09</v>
+      </c>
+      <c r="E117">
+        <v>-0.05</v>
+      </c>
+      <c r="F117">
+        <v>0.47</v>
+      </c>
+      <c r="G117">
+        <v>0.53</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>0.67</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>-0.06</v>
+      </c>
+      <c r="F118">
+        <v>0.43</v>
+      </c>
+      <c r="G118">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>0.74</v>
+      </c>
+      <c r="D119">
+        <v>-0.06</v>
+      </c>
+      <c r="E119">
+        <v>-0.06</v>
+      </c>
+      <c r="F119">
+        <v>0.49</v>
+      </c>
+      <c r="G119">
+        <v>0.51</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>0.7</v>
+      </c>
+      <c r="D120">
+        <v>-0.08</v>
+      </c>
+      <c r="E120">
+        <v>0.01</v>
+      </c>
+      <c r="F120">
+        <v>0.45</v>
+      </c>
+      <c r="G120">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>0.41</v>
+      </c>
+      <c r="D121">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E121">
+        <v>0.2</v>
+      </c>
+      <c r="F121">
+        <v>0.3</v>
+      </c>
+      <c r="G121">
+        <v>0.7</v>
+      </c>
+      <c r="H121">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>0.19</v>
+      </c>
+      <c r="D122">
+        <v>0.65</v>
+      </c>
+      <c r="E122">
+        <v>0.02</v>
+      </c>
+      <c r="F122">
+        <v>0.59</v>
+      </c>
+      <c r="G122">
+        <v>0.41</v>
+      </c>
+      <c r="H122">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D123">
+        <v>0.95</v>
+      </c>
+      <c r="E123">
+        <v>-0.01</v>
+      </c>
+      <c r="F123">
+        <v>0.84</v>
+      </c>
+      <c r="G123">
+        <v>0.16</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>-0.01</v>
+      </c>
+      <c r="D124">
+        <v>0.04</v>
+      </c>
+      <c r="E124">
+        <v>0.47</v>
+      </c>
+      <c r="F124">
+        <v>0.23</v>
+      </c>
+      <c r="G124">
+        <v>0.77</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125">
+        <v>0.69</v>
+      </c>
+      <c r="D125">
+        <v>-0.03</v>
+      </c>
+      <c r="E125">
+        <v>-0.01</v>
+      </c>
+      <c r="F125">
+        <v>0.46</v>
+      </c>
+      <c r="G125">
+        <v>0.54</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>0.7</v>
+      </c>
+      <c r="D126">
+        <v>0.03</v>
+      </c>
+      <c r="E126">
+        <v>0.02</v>
+      </c>
+      <c r="F126">
+        <v>0.53</v>
+      </c>
+      <c r="G126">
+        <v>0.47</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>-0.03</v>
+      </c>
+      <c r="D127">
+        <v>0.91</v>
+      </c>
+      <c r="E127">
+        <v>0.04</v>
+      </c>
+      <c r="F127">
+        <v>0.82</v>
+      </c>
+      <c r="G127">
+        <v>0.18</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>0.13</v>
+      </c>
+      <c r="D128">
+        <v>0.75</v>
+      </c>
+      <c r="E128">
+        <v>0.06</v>
+      </c>
+      <c r="F128">
+        <v>0.71</v>
+      </c>
+      <c r="G128">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H128">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129">
+        <v>0.48</v>
+      </c>
+      <c r="D129">
+        <v>0.02</v>
+      </c>
+      <c r="E129">
+        <v>-0.1</v>
+      </c>
+      <c r="F129">
+        <v>0.23</v>
+      </c>
+      <c r="G129">
+        <v>0.77</v>
+      </c>
+      <c r="H129">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130">
+        <v>0.66</v>
+      </c>
+      <c r="D130">
+        <v>-0.05</v>
+      </c>
+      <c r="E130">
+        <v>-0.05</v>
+      </c>
+      <c r="F130">
+        <v>0.39</v>
+      </c>
+      <c r="G130">
+        <v>0.61</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131">
+        <v>0.67</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0.44</v>
+      </c>
+      <c r="G131">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132">
+        <v>0.63</v>
+      </c>
+      <c r="D132">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E132">
+        <v>0.05</v>
+      </c>
+      <c r="F132">
+        <v>0.38</v>
+      </c>
+      <c r="G132">
+        <v>0.62</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>0.62</v>
+      </c>
+      <c r="D133">
+        <v>-0.05</v>
+      </c>
+      <c r="E133">
+        <v>0.08</v>
+      </c>
+      <c r="F133">
+        <v>0.39</v>
+      </c>
+      <c r="G133">
+        <v>0.61</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <v>0.59</v>
+      </c>
+      <c r="D134">
+        <v>0.1</v>
+      </c>
+      <c r="E134">
+        <v>-0.1</v>
+      </c>
+      <c r="F134">
+        <v>0.4</v>
+      </c>
+      <c r="G134">
+        <v>0.6</v>
+      </c>
+      <c r="H134">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>0.06</v>
+      </c>
+      <c r="D135">
+        <v>-0.08</v>
+      </c>
+      <c r="E135">
+        <v>0.52</v>
+      </c>
+      <c r="F135">
+        <v>0.26</v>
+      </c>
+      <c r="G135">
+        <v>0.74</v>
+      </c>
+      <c r="H135">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>0.21</v>
+      </c>
+      <c r="D136">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E136">
+        <v>0.35</v>
+      </c>
+      <c r="F136">
+        <v>0.18</v>
+      </c>
+      <c r="G136">
+        <v>0.82</v>
+      </c>
+      <c r="H136">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137">
+        <v>0.59</v>
+      </c>
+      <c r="D137">
+        <v>0.16</v>
+      </c>
+      <c r="E137">
+        <v>0.15</v>
+      </c>
+      <c r="F137">
+        <v>0.54</v>
+      </c>
+      <c r="G137">
+        <v>0.46</v>
+      </c>
+      <c r="H137">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138">
+        <v>-0.09</v>
+      </c>
+      <c r="D138">
+        <v>0.05</v>
+      </c>
+      <c r="E138">
+        <v>0.59</v>
+      </c>
+      <c r="F138">
+        <v>0.34</v>
+      </c>
+      <c r="G138">
+        <v>0.66</v>
+      </c>
+      <c r="H138">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139">
+        <v>0.44</v>
+      </c>
+      <c r="D139">
+        <v>-0.04</v>
+      </c>
+      <c r="E139">
+        <v>-0.02</v>
+      </c>
+      <c r="F139">
+        <v>0.17</v>
+      </c>
+      <c r="G139">
+        <v>0.83</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140">
+        <v>0.19</v>
+      </c>
+      <c r="D140">
+        <v>0.38</v>
+      </c>
+      <c r="E140">
+        <v>0.04</v>
+      </c>
+      <c r="F140">
+        <v>0.27</v>
+      </c>
+      <c r="G140">
+        <v>0.73</v>
+      </c>
+      <c r="H140">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141">
+        <v>0.24</v>
+      </c>
+      <c r="D141">
+        <v>0.41</v>
+      </c>
+      <c r="E141">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F141">
+        <v>0.31</v>
+      </c>
+      <c r="G141">
+        <v>0.69</v>
+      </c>
+      <c r="H141">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142">
+        <v>0.62</v>
+      </c>
+      <c r="D142">
+        <v>0.05</v>
+      </c>
+      <c r="E142">
+        <v>-0.08</v>
+      </c>
+      <c r="F142">
+        <v>0.4</v>
+      </c>
+      <c r="G142">
+        <v>0.6</v>
+      </c>
+      <c r="H142">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143">
+        <v>0.31</v>
+      </c>
+      <c r="D143">
+        <v>-0.03</v>
+      </c>
+      <c r="E143">
+        <v>0.48</v>
+      </c>
+      <c r="F143">
+        <v>0.38</v>
+      </c>
+      <c r="G143">
+        <v>0.62</v>
+      </c>
+      <c r="H143">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144">
+        <v>-0.06</v>
+      </c>
+      <c r="D144">
+        <v>0.54</v>
+      </c>
+      <c r="E144">
+        <v>0.2</v>
+      </c>
+      <c r="F144">
+        <v>0.36</v>
+      </c>
+      <c r="G144">
+        <v>0.64</v>
+      </c>
+      <c r="H144">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145">
+        <v>-0.05</v>
+      </c>
+      <c r="D145">
+        <v>-0.05</v>
+      </c>
+      <c r="E145">
+        <v>0.72</v>
+      </c>
+      <c r="F145">
+        <v>0.48</v>
+      </c>
+      <c r="G145">
+        <v>0.52</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146">
+        <v>-0.04</v>
+      </c>
+      <c r="D146">
+        <v>0.94</v>
+      </c>
+      <c r="E146">
+        <v>-0.04</v>
+      </c>
+      <c r="F146">
+        <v>0.82</v>
+      </c>
+      <c r="G146">
+        <v>0.18</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147">
+        <v>0.03</v>
+      </c>
+      <c r="D147">
+        <v>0.79</v>
+      </c>
+      <c r="E147">
+        <v>-0.06</v>
+      </c>
+      <c r="F147">
+        <v>0.63</v>
+      </c>
+      <c r="G147">
+        <v>0.37</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <v>0.03</v>
+      </c>
+      <c r="D148">
+        <v>0.87</v>
+      </c>
+      <c r="E148">
+        <v>-0.04</v>
+      </c>
+      <c r="F148">
+        <v>0.76</v>
+      </c>
+      <c r="G148">
+        <v>0.24</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149">
+        <v>0.06</v>
+      </c>
+      <c r="D149">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E149">
+        <v>-0.04</v>
+      </c>
+      <c r="F149">
+        <v>0.33</v>
+      </c>
+      <c r="G149">
+        <v>0.67</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>0.53</v>
+      </c>
+      <c r="D150">
+        <v>0.2</v>
+      </c>
+      <c r="E150">
+        <v>0.02</v>
+      </c>
+      <c r="F150">
+        <v>0.44</v>
+      </c>
+      <c r="G150">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H150">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151">
+        <v>0.24</v>
+      </c>
+      <c r="D151">
+        <v>0.2</v>
+      </c>
+      <c r="E151">
+        <v>0.32</v>
+      </c>
+      <c r="F151">
+        <v>0.33</v>
+      </c>
+      <c r="G151">
+        <v>0.67</v>
+      </c>
+      <c r="H151">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152">
+        <v>0.65</v>
+      </c>
+      <c r="D152">
+        <v>0.17</v>
+      </c>
+      <c r="E152">
+        <v>0.05</v>
+      </c>
+      <c r="F152">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G152">
+        <v>0.42</v>
+      </c>
+      <c r="H152">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153">
+        <v>0.01</v>
+      </c>
+      <c r="D153">
+        <v>0.75</v>
+      </c>
+      <c r="E153">
+        <v>0.09</v>
+      </c>
+      <c r="F153">
+        <v>0.62</v>
+      </c>
+      <c r="G153">
+        <v>0.38</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154">
+        <v>-0.05</v>
+      </c>
+      <c r="D154">
+        <v>0.1</v>
+      </c>
+      <c r="E154">
+        <v>0.61</v>
+      </c>
+      <c r="F154">
+        <v>0.4</v>
+      </c>
+      <c r="G154">
+        <v>0.6</v>
+      </c>
+      <c r="H154">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155">
+        <v>0.62</v>
+      </c>
+      <c r="D155">
+        <v>0.06</v>
+      </c>
+      <c r="E155">
+        <v>0.01</v>
+      </c>
+      <c r="F155">
+        <v>0.42</v>
+      </c>
+      <c r="G155">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156">
+        <v>0.43</v>
+      </c>
+      <c r="D156">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.09</v>
+      </c>
+      <c r="F156">
+        <v>0.3</v>
+      </c>
+      <c r="G156">
+        <v>0.7</v>
+      </c>
+      <c r="H156">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157">
+        <v>0.36</v>
+      </c>
+      <c r="D157">
+        <v>0.4</v>
+      </c>
+      <c r="E157">
+        <v>0.13</v>
+      </c>
+      <c r="F157">
+        <v>0.51</v>
+      </c>
+      <c r="G157">
+        <v>0.49</v>
+      </c>
+      <c r="H157">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>0.49</v>
+      </c>
+      <c r="D161">
+        <v>0.06</v>
+      </c>
+      <c r="E161">
+        <v>0.23</v>
+      </c>
+      <c r="F161">
+        <v>0.38</v>
+      </c>
+      <c r="G161">
+        <v>0.62</v>
+      </c>
+      <c r="H161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>0.7</v>
+      </c>
+      <c r="D162">
+        <v>0.05</v>
+      </c>
+      <c r="E162">
+        <v>0.01</v>
+      </c>
+      <c r="F162">
+        <v>0.53</v>
+      </c>
+      <c r="G162">
+        <v>0.47</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163">
+        <v>0.69</v>
+      </c>
+      <c r="D163">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E163">
+        <v>-0.04</v>
+      </c>
+      <c r="F163">
+        <v>0.52</v>
+      </c>
+      <c r="G163">
+        <v>0.48</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164">
+        <v>0.74</v>
+      </c>
+      <c r="D164">
+        <v>-0.09</v>
+      </c>
+      <c r="E164">
+        <v>-0.06</v>
+      </c>
+      <c r="F164">
+        <v>0.47</v>
+      </c>
+      <c r="G164">
+        <v>0.53</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165">
+        <v>0.67</v>
+      </c>
+      <c r="D165">
+        <v>-0.02</v>
+      </c>
+      <c r="E165">
+        <v>-0.02</v>
+      </c>
+      <c r="F165">
+        <v>0.43</v>
+      </c>
+      <c r="G165">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>0.75</v>
+      </c>
+      <c r="D166">
+        <v>-0.08</v>
+      </c>
+      <c r="E166">
+        <v>-0.02</v>
+      </c>
+      <c r="F166">
+        <v>0.5</v>
+      </c>
+      <c r="G166">
+        <v>0.5</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167">
+        <v>0.71</v>
+      </c>
+      <c r="D167">
+        <v>-0.09</v>
+      </c>
+      <c r="E167">
+        <v>0.04</v>
+      </c>
+      <c r="F167">
+        <v>0.45</v>
+      </c>
+      <c r="G167">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168">
+        <v>0.42</v>
+      </c>
+      <c r="D168">
+        <v>0.08</v>
+      </c>
+      <c r="E168">
+        <v>0.15</v>
+      </c>
+      <c r="F168">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G168">
+        <v>0.72</v>
+      </c>
+      <c r="H168">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>0.19</v>
+      </c>
+      <c r="D169">
+        <v>0.65</v>
+      </c>
+      <c r="E169">
+        <v>0.01</v>
+      </c>
+      <c r="F169">
+        <v>0.59</v>
+      </c>
+      <c r="G169">
+        <v>0.41</v>
+      </c>
+      <c r="H169">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D170">
+        <v>0.95</v>
+      </c>
+      <c r="E170">
+        <v>-0.02</v>
+      </c>
+      <c r="F170">
+        <v>0.84</v>
+      </c>
+      <c r="G170">
+        <v>0.16</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>0.01</v>
+      </c>
+      <c r="D171">
+        <v>0.03</v>
+      </c>
+      <c r="E171">
+        <v>0.49</v>
+      </c>
+      <c r="F171">
+        <v>0.25</v>
+      </c>
+      <c r="G171">
+        <v>0.75</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>0.69</v>
+      </c>
+      <c r="D172">
+        <v>-0.02</v>
+      </c>
+      <c r="E172">
+        <v>-0.03</v>
+      </c>
+      <c r="F172">
+        <v>0.46</v>
+      </c>
+      <c r="G172">
+        <v>0.54</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173">
+        <v>0.71</v>
+      </c>
+      <c r="D173">
+        <v>0.03</v>
+      </c>
+      <c r="E173">
+        <v>-0.01</v>
+      </c>
+      <c r="F173">
+        <v>0.52</v>
+      </c>
+      <c r="G173">
+        <v>0.48</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174">
+        <v>-0.02</v>
+      </c>
+      <c r="D174">
+        <v>0.9</v>
+      </c>
+      <c r="E174">
+        <v>0.04</v>
+      </c>
+      <c r="F174">
+        <v>0.81</v>
+      </c>
+      <c r="G174">
+        <v>0.19</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D175">
+        <v>0.74</v>
+      </c>
+      <c r="E175">
+        <v>0.08</v>
+      </c>
+      <c r="F175">
+        <v>0.71</v>
+      </c>
+      <c r="G175">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H175">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176">
+        <v>0.48</v>
+      </c>
+      <c r="D176">
+        <v>0.01</v>
+      </c>
+      <c r="E176">
+        <v>-0.08</v>
+      </c>
+      <c r="F176">
+        <v>0.22</v>
+      </c>
+      <c r="G176">
+        <v>0.78</v>
+      </c>
+      <c r="H176">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>0.66</v>
+      </c>
+      <c r="D177">
+        <v>-0.06</v>
+      </c>
+      <c r="E177">
+        <v>-0.03</v>
+      </c>
+      <c r="F177">
+        <v>0.39</v>
+      </c>
+      <c r="G177">
+        <v>0.61</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178">
+        <v>0.67</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.44</v>
+      </c>
+      <c r="G178">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179">
+        <v>0.64</v>
+      </c>
+      <c r="D179">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E179">
+        <v>0.05</v>
+      </c>
+      <c r="F179">
+        <v>0.38</v>
+      </c>
+      <c r="G179">
+        <v>0.62</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180">
+        <v>0.63</v>
+      </c>
+      <c r="D180">
+        <v>-0.05</v>
+      </c>
+      <c r="E180">
+        <v>0.08</v>
+      </c>
+      <c r="F180">
+        <v>0.39</v>
+      </c>
+      <c r="G180">
+        <v>0.61</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181">
+        <v>0.59</v>
+      </c>
+      <c r="D181">
+        <v>0.1</v>
+      </c>
+      <c r="E181">
+        <v>-0.1</v>
+      </c>
+      <c r="F181">
+        <v>0.4</v>
+      </c>
+      <c r="G181">
+        <v>0.6</v>
+      </c>
+      <c r="H181">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <v>0.09</v>
+      </c>
+      <c r="D182">
+        <v>-0.06</v>
+      </c>
+      <c r="E182">
+        <v>0.46</v>
+      </c>
+      <c r="F182">
+        <v>0.22</v>
+      </c>
+      <c r="G182">
+        <v>0.78</v>
+      </c>
+      <c r="H182">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183">
+        <v>0.23</v>
+      </c>
+      <c r="D183">
+        <v>-0.06</v>
+      </c>
+      <c r="E183">
+        <v>0.32</v>
+      </c>
+      <c r="F183">
+        <v>0.17</v>
+      </c>
+      <c r="G183">
+        <v>0.83</v>
+      </c>
+      <c r="H183">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184">
+        <v>0.59</v>
+      </c>
+      <c r="D184">
+        <v>0.16</v>
+      </c>
+      <c r="E184">
+        <v>0.13</v>
+      </c>
+      <c r="F184">
+        <v>0.53</v>
+      </c>
+      <c r="G184">
+        <v>0.47</v>
+      </c>
+      <c r="H184">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C185">
+        <v>-0.05</v>
+      </c>
+      <c r="D185">
+        <v>0.04</v>
+      </c>
+      <c r="E185">
+        <v>0.6</v>
+      </c>
+      <c r="F185">
+        <v>0.36</v>
+      </c>
+      <c r="G185">
+        <v>0.64</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186">
+        <v>0.44</v>
+      </c>
+      <c r="D186">
+        <v>-0.05</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0.17</v>
+      </c>
+      <c r="G186">
+        <v>0.83</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187">
+        <v>0.19</v>
+      </c>
+      <c r="D187">
+        <v>0.37</v>
+      </c>
+      <c r="E187">
+        <v>0.04</v>
+      </c>
+      <c r="F187">
+        <v>0.26</v>
+      </c>
+      <c r="G187">
+        <v>0.74</v>
+      </c>
+      <c r="H187">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188">
+        <v>0.24</v>
+      </c>
+      <c r="D188">
+        <v>0.41</v>
+      </c>
+      <c r="E188">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F188">
+        <v>0.31</v>
+      </c>
+      <c r="G188">
+        <v>0.69</v>
+      </c>
+      <c r="H188">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189">
+        <v>0.62</v>
+      </c>
+      <c r="D189">
+        <v>0.05</v>
+      </c>
+      <c r="E189">
+        <v>-0.08</v>
+      </c>
+      <c r="F189">
+        <v>0.4</v>
+      </c>
+      <c r="G189">
+        <v>0.6</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190">
+        <v>-0.05</v>
+      </c>
+      <c r="D190">
+        <v>0.53</v>
+      </c>
+      <c r="E190">
+        <v>0.22</v>
+      </c>
+      <c r="F190">
+        <v>0.36</v>
+      </c>
+      <c r="G190">
+        <v>0.64</v>
+      </c>
+      <c r="H190">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C191">
+        <v>-0.01</v>
+      </c>
+      <c r="D191">
+        <v>-0.06</v>
+      </c>
+      <c r="E191">
+        <v>0.75</v>
+      </c>
+      <c r="F191">
+        <v>0.53</v>
+      </c>
+      <c r="G191">
+        <v>0.47</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192">
+        <v>-0.04</v>
+      </c>
+      <c r="D192">
+        <v>0.94</v>
+      </c>
+      <c r="E192">
+        <v>-0.04</v>
+      </c>
+      <c r="F192">
+        <v>0.83</v>
+      </c>
+      <c r="G192">
+        <v>0.17</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193">
+        <v>0.03</v>
+      </c>
+      <c r="D193">
+        <v>0.79</v>
+      </c>
+      <c r="E193">
+        <v>-0.06</v>
+      </c>
+      <c r="F193">
+        <v>0.62</v>
+      </c>
+      <c r="G193">
+        <v>0.38</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194">
+        <v>0.03</v>
+      </c>
+      <c r="D194">
+        <v>0.86</v>
+      </c>
+      <c r="E194">
+        <v>-0.02</v>
+      </c>
+      <c r="F194">
+        <v>0.76</v>
+      </c>
+      <c r="G194">
+        <v>0.24</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C195">
+        <v>0.06</v>
+      </c>
+      <c r="D195">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E195">
+        <v>-0.05</v>
+      </c>
+      <c r="F195">
+        <v>0.33</v>
+      </c>
+      <c r="G195">
+        <v>0.67</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196">
+        <v>0.53</v>
+      </c>
+      <c r="D196">
+        <v>0.2</v>
+      </c>
+      <c r="E196">
+        <v>0.02</v>
+      </c>
+      <c r="F196">
+        <v>0.44</v>
+      </c>
+      <c r="G196">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H196">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197">
+        <v>0.26</v>
+      </c>
+      <c r="D197">
+        <v>0.22</v>
+      </c>
+      <c r="E197">
+        <v>0.26</v>
+      </c>
+      <c r="F197">
+        <v>0.3</v>
+      </c>
+      <c r="G197">
+        <v>0.7</v>
+      </c>
+      <c r="H197">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198">
+        <v>0.65</v>
+      </c>
+      <c r="D198">
+        <v>0.17</v>
+      </c>
+      <c r="E198">
+        <v>0.04</v>
+      </c>
+      <c r="F198">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G198">
+        <v>0.42</v>
+      </c>
+      <c r="H198">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199">
+        <v>0.02</v>
+      </c>
+      <c r="D199">
+        <v>0.75</v>
+      </c>
+      <c r="E199">
+        <v>0.09</v>
+      </c>
+      <c r="F199">
+        <v>0.62</v>
+      </c>
+      <c r="G199">
+        <v>0.38</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200">
+        <v>-0.01</v>
+      </c>
+      <c r="D200">
+        <v>0.09</v>
+      </c>
+      <c r="E200">
+        <v>0.63</v>
+      </c>
+      <c r="F200">
+        <v>0.43</v>
+      </c>
+      <c r="G200">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C201">
+        <v>0.62</v>
+      </c>
+      <c r="D201">
+        <v>0.06</v>
+      </c>
+      <c r="E201">
+        <v>0.02</v>
+      </c>
+      <c r="F201">
+        <v>0.43</v>
+      </c>
+      <c r="G201">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C202">
+        <v>0.43</v>
+      </c>
+      <c r="D202">
+        <v>0.13</v>
+      </c>
+      <c r="E202">
+        <v>0.1</v>
+      </c>
+      <c r="F202">
+        <v>0.3</v>
+      </c>
+      <c r="G202">
+        <v>0.7</v>
+      </c>
+      <c r="H202">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>0.49</v>
+      </c>
+      <c r="D206">
+        <v>0.06</v>
+      </c>
+      <c r="E206">
+        <v>0.24</v>
+      </c>
+      <c r="F206">
+        <v>0.39</v>
+      </c>
+      <c r="G206">
+        <v>0.61</v>
+      </c>
+      <c r="H206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>0.7</v>
+      </c>
+      <c r="D207">
+        <v>0.06</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0.53</v>
+      </c>
+      <c r="G207">
+        <v>0.47</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208">
+        <v>0.68</v>
+      </c>
+      <c r="D208">
+        <v>0.08</v>
+      </c>
+      <c r="E208">
+        <v>-0.05</v>
+      </c>
+      <c r="F208">
+        <v>0.51</v>
+      </c>
+      <c r="G208">
+        <v>0.49</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>0.73</v>
+      </c>
+      <c r="D209">
+        <v>-0.09</v>
+      </c>
+      <c r="E209">
+        <v>-0.05</v>
+      </c>
+      <c r="F209">
+        <v>0.47</v>
+      </c>
+      <c r="G209">
+        <v>0.53</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210">
+        <v>0.67</v>
+      </c>
+      <c r="D210">
+        <v>-0.02</v>
+      </c>
+      <c r="E210">
+        <v>-0.02</v>
+      </c>
+      <c r="F210">
+        <v>0.43</v>
+      </c>
+      <c r="G210">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>0.74</v>
+      </c>
+      <c r="D211">
+        <v>-0.08</v>
+      </c>
+      <c r="E211">
+        <v>-0.01</v>
+      </c>
+      <c r="F211">
+        <v>0.5</v>
+      </c>
+      <c r="G211">
+        <v>0.5</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212">
+        <v>0.71</v>
+      </c>
+      <c r="D212">
+        <v>-0.09</v>
+      </c>
+      <c r="E212">
+        <v>0.05</v>
+      </c>
+      <c r="F212">
+        <v>0.45</v>
+      </c>
+      <c r="G212">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213">
+        <v>0.42</v>
+      </c>
+      <c r="D213">
+        <v>0.09</v>
+      </c>
+      <c r="E213">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F213">
+        <v>0.27</v>
+      </c>
+      <c r="G213">
+        <v>0.73</v>
+      </c>
+      <c r="H213">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214">
+        <v>0.19</v>
+      </c>
+      <c r="D214">
+        <v>0.64</v>
+      </c>
+      <c r="E214">
+        <v>0.02</v>
+      </c>
+      <c r="F214">
+        <v>0.59</v>
+      </c>
+      <c r="G214">
+        <v>0.41</v>
+      </c>
+      <c r="H214">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D215">
+        <v>0.95</v>
+      </c>
+      <c r="E215">
+        <v>-0.02</v>
+      </c>
+      <c r="F215">
+        <v>0.84</v>
+      </c>
+      <c r="G215">
+        <v>0.16</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216">
+        <v>0.02</v>
+      </c>
+      <c r="D216">
+        <v>0.03</v>
+      </c>
+      <c r="E216">
+        <v>0.49</v>
+      </c>
+      <c r="F216">
+        <v>0.26</v>
+      </c>
+      <c r="G216">
+        <v>0.74</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217">
+        <v>0.69</v>
+      </c>
+      <c r="D217">
+        <v>-0.02</v>
+      </c>
+      <c r="E217">
+        <v>-0.04</v>
+      </c>
+      <c r="F217">
+        <v>0.46</v>
+      </c>
+      <c r="G217">
+        <v>0.54</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218">
+        <v>0.71</v>
+      </c>
+      <c r="D218">
+        <v>0.04</v>
+      </c>
+      <c r="E218">
+        <v>-0.01</v>
+      </c>
+      <c r="F218">
+        <v>0.52</v>
+      </c>
+      <c r="G218">
+        <v>0.48</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219">
+        <v>-0.02</v>
+      </c>
+      <c r="D219">
+        <v>0.9</v>
+      </c>
+      <c r="E219">
+        <v>0.04</v>
+      </c>
+      <c r="F219">
+        <v>0.81</v>
+      </c>
+      <c r="G219">
+        <v>0.19</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D220">
+        <v>0.74</v>
+      </c>
+      <c r="E220">
+        <v>0.08</v>
+      </c>
+      <c r="F220">
+        <v>0.71</v>
+      </c>
+      <c r="G220">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H220">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221">
+        <v>0.48</v>
+      </c>
+      <c r="D221">
+        <v>0.01</v>
+      </c>
+      <c r="E221">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F221">
+        <v>0.22</v>
+      </c>
+      <c r="G221">
+        <v>0.78</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222">
+        <v>0.66</v>
+      </c>
+      <c r="D222">
+        <v>-0.06</v>
+      </c>
+      <c r="E222">
+        <v>-0.03</v>
+      </c>
+      <c r="F222">
+        <v>0.39</v>
+      </c>
+      <c r="G222">
+        <v>0.61</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223">
+        <v>0.67</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0.44</v>
+      </c>
+      <c r="G223">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224">
+        <v>0.64</v>
+      </c>
+      <c r="D224">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E224">
+        <v>0.05</v>
+      </c>
+      <c r="F224">
+        <v>0.38</v>
+      </c>
+      <c r="G224">
+        <v>0.62</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225">
+        <v>0.63</v>
+      </c>
+      <c r="D225">
+        <v>-0.05</v>
+      </c>
+      <c r="E225">
+        <v>0.08</v>
+      </c>
+      <c r="F225">
+        <v>0.39</v>
+      </c>
+      <c r="G225">
+        <v>0.61</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226">
+        <v>0.59</v>
+      </c>
+      <c r="D226">
+        <v>0.1</v>
+      </c>
+      <c r="E226">
+        <v>-0.09</v>
+      </c>
+      <c r="F226">
+        <v>0.4</v>
+      </c>
+      <c r="G226">
+        <v>0.6</v>
+      </c>
+      <c r="H226">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C227">
+        <v>0.09</v>
+      </c>
+      <c r="D227">
+        <v>-0.06</v>
+      </c>
+      <c r="E227">
+        <v>0.45</v>
+      </c>
+      <c r="F227">
+        <v>0.21</v>
+      </c>
+      <c r="G227">
+        <v>0.79</v>
+      </c>
+      <c r="H227">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228">
+        <v>0.24</v>
+      </c>
+      <c r="D228">
+        <v>-0.06</v>
+      </c>
+      <c r="E228">
+        <v>0.33</v>
+      </c>
+      <c r="F228">
+        <v>0.17</v>
+      </c>
+      <c r="G228">
+        <v>0.83</v>
+      </c>
+      <c r="H228">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>29</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C229">
+        <v>0.59</v>
+      </c>
+      <c r="D229">
+        <v>0.16</v>
+      </c>
+      <c r="E229">
+        <v>0.13</v>
+      </c>
+      <c r="F229">
+        <v>0.53</v>
+      </c>
+      <c r="G229">
+        <v>0.47</v>
+      </c>
+      <c r="H229">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>31</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230">
+        <v>-0.05</v>
+      </c>
+      <c r="D230">
+        <v>0.04</v>
+      </c>
+      <c r="E230">
+        <v>0.6</v>
+      </c>
+      <c r="F230">
+        <v>0.37</v>
+      </c>
+      <c r="G230">
+        <v>0.63</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>32</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C231">
+        <v>0.44</v>
+      </c>
+      <c r="D231">
+        <v>-0.05</v>
+      </c>
+      <c r="E231">
+        <v>0.01</v>
+      </c>
+      <c r="F231">
+        <v>0.17</v>
+      </c>
+      <c r="G231">
+        <v>0.83</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>33</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C232">
+        <v>0.19</v>
+      </c>
+      <c r="D232">
+        <v>0.37</v>
+      </c>
+      <c r="E232">
+        <v>0.03</v>
+      </c>
+      <c r="F232">
+        <v>0.26</v>
+      </c>
+      <c r="G232">
+        <v>0.74</v>
+      </c>
+      <c r="H232">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>34</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233">
+        <v>0.24</v>
+      </c>
+      <c r="D233">
+        <v>0.41</v>
+      </c>
+      <c r="E233">
+        <v>-0.09</v>
+      </c>
+      <c r="F233">
+        <v>0.31</v>
+      </c>
+      <c r="G233">
+        <v>0.69</v>
+      </c>
+      <c r="H233">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>35</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C234">
+        <v>0.62</v>
+      </c>
+      <c r="D234">
+        <v>0.05</v>
+      </c>
+      <c r="E234">
+        <v>-0.09</v>
+      </c>
+      <c r="F234">
+        <v>0.4</v>
+      </c>
+      <c r="G234">
+        <v>0.6</v>
+      </c>
+      <c r="H234">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>37</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235">
+        <v>-0.05</v>
+      </c>
+      <c r="D235">
+        <v>0.53</v>
+      </c>
+      <c r="E235">
+        <v>0.22</v>
+      </c>
+      <c r="F235">
+        <v>0.36</v>
+      </c>
+      <c r="G235">
+        <v>0.64</v>
+      </c>
+      <c r="H235">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>38</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C236">
+        <v>-0.01</v>
+      </c>
+      <c r="D236">
+        <v>-0.06</v>
+      </c>
+      <c r="E236">
+        <v>0.73</v>
+      </c>
+      <c r="F236">
+        <v>0.52</v>
+      </c>
+      <c r="G236">
+        <v>0.48</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>39</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237">
+        <v>-0.04</v>
+      </c>
+      <c r="D237">
+        <v>0.94</v>
+      </c>
+      <c r="E237">
+        <v>-0.04</v>
+      </c>
+      <c r="F237">
+        <v>0.83</v>
+      </c>
+      <c r="G237">
+        <v>0.17</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>40</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238">
+        <v>0.03</v>
+      </c>
+      <c r="D238">
+        <v>0.79</v>
+      </c>
+      <c r="E238">
+        <v>-0.06</v>
+      </c>
+      <c r="F238">
+        <v>0.62</v>
+      </c>
+      <c r="G238">
+        <v>0.38</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>41</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239">
+        <v>0.03</v>
+      </c>
+      <c r="D239">
+        <v>0.86</v>
+      </c>
+      <c r="E239">
+        <v>-0.02</v>
+      </c>
+      <c r="F239">
+        <v>0.76</v>
+      </c>
+      <c r="G239">
+        <v>0.24</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>42</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240">
+        <v>0.06</v>
+      </c>
+      <c r="D240">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E240">
+        <v>-0.06</v>
+      </c>
+      <c r="F240">
+        <v>0.33</v>
+      </c>
+      <c r="G240">
+        <v>0.67</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>43</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>0.53</v>
+      </c>
+      <c r="D241">
+        <v>0.21</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0.43</v>
+      </c>
+      <c r="G241">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H241">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>48</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242">
+        <v>0.65</v>
+      </c>
+      <c r="D242">
+        <v>0.18</v>
+      </c>
+      <c r="E242">
+        <v>0.03</v>
+      </c>
+      <c r="F242">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G242">
+        <v>0.42</v>
+      </c>
+      <c r="H242">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>49</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243">
+        <v>0.02</v>
+      </c>
+      <c r="D243">
+        <v>0.75</v>
+      </c>
+      <c r="E243">
+        <v>0.1</v>
+      </c>
+      <c r="F243">
+        <v>0.62</v>
+      </c>
+      <c r="G243">
+        <v>0.38</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>51</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C244">
+        <v>-0.01</v>
+      </c>
+      <c r="D244">
+        <v>0.09</v>
+      </c>
+      <c r="E244">
+        <v>0.63</v>
+      </c>
+      <c r="F244">
+        <v>0.44</v>
+      </c>
+      <c r="G244">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>54</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C245">
+        <v>0.62</v>
+      </c>
+      <c r="D245">
+        <v>0.05</v>
+      </c>
+      <c r="E245">
+        <v>0.03</v>
+      </c>
+      <c r="F245">
+        <v>0.43</v>
+      </c>
+      <c r="G245">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>55</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C246">
+        <v>0.43</v>
+      </c>
+      <c r="D246">
+        <v>0.13</v>
+      </c>
+      <c r="E246">
+        <v>0.1</v>
+      </c>
+      <c r="F246">
+        <v>0.3</v>
+      </c>
+      <c r="G246">
+        <v>0.7</v>
+      </c>
+      <c r="H246">
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:E1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
@@ -16705,17 +22444,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586C92D-CD69-4B80-ADDA-D604C537C67F}">
-  <dimension ref="A1:H59"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3ACA45-228D-4985-8F72-D3244D8D1FDE}">
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -16727,19 +22466,16 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16747,25 +22483,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D2">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
-        <v>0.27</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F2">
-        <v>0.371</v>
+        <v>0.63</v>
       </c>
       <c r="G2">
-        <v>0.63</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16773,25 +22506,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E3">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="F3">
-        <v>0.64400000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="G3">
-        <v>0.36</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16799,25 +22529,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.24</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F4">
-        <v>0.54100000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="G4">
-        <v>0.46</v>
-      </c>
-      <c r="H4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16825,25 +22552,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="D5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0.17</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="F5">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="G5">
-        <v>0.47</v>
-      </c>
-      <c r="H5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16851,25 +22575,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F6">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="G6">
-        <v>0.53</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16877,25 +22598,22 @@
         <v>13</v>
       </c>
       <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>-0.01</v>
+      </c>
+      <c r="E7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F7">
         <v>0.49</v>
       </c>
-      <c r="D7">
-        <v>0.04</v>
-      </c>
-      <c r="E7">
-        <v>0.31</v>
-      </c>
-      <c r="F7">
-        <v>0.51600000000000001</v>
-      </c>
       <c r="G7">
-        <v>0.48</v>
-      </c>
-      <c r="H7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16903,25 +22621,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="D8">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="E8">
-        <v>-0.08</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="F8">
-        <v>0.44900000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16929,25 +22644,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="E9">
-        <v>-0.15</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="F9">
-        <v>0.52200000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="G9">
-        <v>0.48</v>
-      </c>
-      <c r="H9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16955,25 +22667,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="D10">
-        <v>-0.02</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E10">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="F10">
-        <v>0.45100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16981,25 +22690,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.23</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E11">
-        <v>0.43</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F11">
-        <v>0.373</v>
+        <v>0.67</v>
       </c>
       <c r="G11">
-        <v>0.63</v>
-      </c>
-      <c r="H11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17007,25 +22713,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F12">
-        <v>0.58599999999999997</v>
+        <v>0.41</v>
       </c>
       <c r="G12">
-        <v>0.41</v>
-      </c>
-      <c r="H12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17033,25 +22736,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="D13">
         <v>0.95</v>
       </c>
       <c r="E13">
-        <v>-0.01</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F13">
-        <v>0.83399999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G13">
-        <v>0.17</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17059,25 +22759,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E14">
-        <v>0.41</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F14">
-        <v>0.152</v>
+        <v>0.95</v>
       </c>
       <c r="G14">
-        <v>0.85</v>
-      </c>
-      <c r="H14">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17085,25 +22782,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.26</v>
+        <v>0.7</v>
       </c>
       <c r="D15">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E15">
-        <v>0.57999999999999996</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="F15">
-        <v>0.57299999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="G15">
-        <v>0.43</v>
-      </c>
-      <c r="H15">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17111,25 +22805,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="D16">
-        <v>-0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E16">
-        <v>0.14000000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="F16">
-        <v>0.439</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G16">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H16">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17137,25 +22828,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.57999999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="D17">
-        <v>0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="E17">
-        <v>0.2</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="F17">
-        <v>0.52600000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="G17">
-        <v>0.47</v>
-      </c>
-      <c r="H17">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17163,25 +22851,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="D18">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F18">
-        <v>0.81499999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G18">
-        <v>0.19</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17189,25 +22874,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D19">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F19">
-        <v>0.70599999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17215,25 +22897,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="D20">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.14000000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F20">
-        <v>0.252</v>
+        <v>0.82</v>
       </c>
       <c r="G20">
-        <v>0.75</v>
-      </c>
-      <c r="H20">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17241,25 +22920,22 @@
         <v>27</v>
       </c>
       <c r="C21">
+        <v>0.62</v>
+      </c>
+      <c r="D21">
+        <v>-0.08</v>
+      </c>
+      <c r="E21">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F21">
         <v>0.66</v>
       </c>
-      <c r="D21">
-        <v>-0.02</v>
-      </c>
-      <c r="E21">
-        <v>-0.03</v>
-      </c>
-      <c r="F21">
-        <v>0.4</v>
-      </c>
       <c r="G21">
-        <v>0.6</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17267,25 +22943,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D22">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E22">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="F22">
-        <v>0.44600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="G22">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17293,25 +22966,22 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D23">
-        <v>-0.02</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F23">
-        <v>0.36499999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="G23">
-        <v>0.64</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17319,25 +22989,22 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="E24">
-        <v>0.08</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F24">
-        <v>0.38200000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G24">
-        <v>0.62</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17345,25 +23012,22 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0.32</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D25">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="E25">
-        <v>0.33</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F25">
-        <v>0.434</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G25">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17371,25 +23035,22 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="D26">
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
       <c r="E26">
-        <v>0.4</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F26">
-        <v>0.38600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G26">
-        <v>0.61</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17397,25 +23058,22 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="D27">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E27">
-        <v>-0.08</v>
+        <v>0.33</v>
       </c>
       <c r="F27">
-        <v>0.39600000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="G27">
-        <v>0.6</v>
-      </c>
-      <c r="H27">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17423,25 +23081,22 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>-0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D28">
         <v>-0.05</v>
       </c>
       <c r="E28">
-        <v>0.63</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F28">
-        <v>0.29799999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G28">
-        <v>0.7</v>
-      </c>
-      <c r="H28">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17449,25 +23104,22 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.36</v>
       </c>
       <c r="D29">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E29">
-        <v>0.38</v>
+        <v>0.114</v>
       </c>
       <c r="F29">
-        <v>0.16400000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G29">
-        <v>0.84</v>
-      </c>
-      <c r="H29">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17475,25 +23127,22 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="D30">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E30">
-        <v>0.28999999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="F30">
-        <v>0.56299999999999994</v>
+        <v>0.44</v>
       </c>
       <c r="G30">
-        <v>0.44</v>
-      </c>
-      <c r="H30">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17501,25 +23150,22 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="D31">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31">
-        <v>0.54</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="F31">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="G31">
-        <v>0.44</v>
-      </c>
-      <c r="H31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17527,25 +23173,22 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>-0.26</v>
+        <v>0.08</v>
       </c>
       <c r="D32">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E32">
-        <v>0.44</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F32">
-        <v>0.182</v>
+        <v>0.96</v>
       </c>
       <c r="G32">
-        <v>0.82</v>
-      </c>
-      <c r="H32">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17553,25 +23196,22 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D33">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="E33">
-        <v>-0.06</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F33">
-        <v>0.17899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G33">
-        <v>0.82</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17579,25 +23219,22 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D34">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E34">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F34">
-        <v>0.26600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G34">
-        <v>0.73</v>
-      </c>
-      <c r="H34">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17608,22 +23245,19 @@
         <v>0.24</v>
       </c>
       <c r="D35">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="E35">
-        <v>-0.01</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F35">
-        <v>0.30499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G35">
-        <v>0.69</v>
-      </c>
-      <c r="H35">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17631,25 +23265,22 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D36">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E36">
-        <v>-0.03</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="F36">
-        <v>0.39900000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G36">
-        <v>0.6</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17657,25 +23288,22 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
       <c r="D37">
         <v>-0.02</v>
       </c>
       <c r="E37">
-        <v>0.7</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F37">
-        <v>0.48899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G37">
-        <v>0.51</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17683,25 +23311,22 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0.56999999999999995</v>
       </c>
       <c r="E38">
-        <v>0.12</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F38">
-        <v>0.33600000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="G38">
-        <v>0.66</v>
-      </c>
-      <c r="H38">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17709,25 +23334,22 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>-0.26</v>
+        <v>0.17</v>
       </c>
       <c r="D39">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E39">
-        <v>0.55000000000000004</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F39">
-        <v>0.245</v>
+        <v>0.96</v>
       </c>
       <c r="G39">
-        <v>0.76</v>
-      </c>
-      <c r="H39">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17735,25 +23357,22 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="D40">
         <v>0.94</v>
       </c>
       <c r="E40">
-        <v>-0.06</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F40">
-        <v>0.82299999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G40">
-        <v>0.18</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17761,25 +23380,22 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D41">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E41">
-        <v>-0.06</v>
+        <v>0.62</v>
       </c>
       <c r="F41">
-        <v>0.625</v>
+        <v>0.38</v>
       </c>
       <c r="G41">
-        <v>0.38</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17787,25 +23403,22 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E42">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="F42">
-        <v>0.76700000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="G42">
-        <v>0.23</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17816,22 +23429,19 @@
         <v>0.06</v>
       </c>
       <c r="D43">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="E43">
-        <v>-0.02</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F43">
-        <v>0.32600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="G43">
-        <v>0.67</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17839,25 +23449,22 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="D44">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>0.435</v>
       </c>
       <c r="F44">
-        <v>0.442</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G44">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H44">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17865,25 +23472,22 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="D45">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E45">
-        <v>0.1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F45">
-        <v>4.7E-2</v>
+        <v>0.95</v>
       </c>
       <c r="G45">
-        <v>0.95</v>
-      </c>
-      <c r="H45">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17891,25 +23495,22 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="D46">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E46">
-        <v>0.47</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F46">
-        <v>0.38200000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G46">
-        <v>0.62</v>
-      </c>
-      <c r="H46">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17917,25 +23518,22 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="D47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.39</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F47">
-        <v>0.40200000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="G47">
-        <v>0.6</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17943,25 +23541,22 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="D48">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E48">
-        <v>0.53</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="F48">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="G48">
-        <v>0.41</v>
-      </c>
-      <c r="H48">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17969,25 +23564,22 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E49">
-        <v>0.16</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="F49">
-        <v>0.58599999999999997</v>
+        <v>0.42</v>
       </c>
       <c r="G49">
-        <v>0.41</v>
-      </c>
-      <c r="H49">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17995,25 +23587,22 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D50">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E50">
-        <v>7.0000000000000007E-2</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F50">
-        <v>0.61599999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G50">
-        <v>0.38</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18021,25 +23610,22 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>-0.14000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="D51">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E51">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F51">
-        <v>4.4999999999999998E-2</v>
+        <v>0.97</v>
       </c>
       <c r="G51">
-        <v>0.96</v>
-      </c>
-      <c r="H51">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18047,25 +23633,22 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>-0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D52">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E52">
-        <v>0.45</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F52">
-        <v>0.219</v>
+        <v>0.91</v>
       </c>
       <c r="G52">
-        <v>0.78</v>
-      </c>
-      <c r="H52">
         <v>1.8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18073,25 +23656,22 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="D53">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E53">
-        <v>0.47</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="F53">
-        <v>0.57499999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="G53">
-        <v>0.42</v>
-      </c>
-      <c r="H53">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18099,25 +23679,22 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E54">
-        <v>0.28999999999999998</v>
+        <v>0.106</v>
       </c>
       <c r="F54">
-        <v>0.13100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G54">
-        <v>0.87</v>
-      </c>
-      <c r="H54">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18125,25 +23702,22 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="D55">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="E55">
-        <v>-0.01</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F55">
-        <v>0.435</v>
+        <v>0.62</v>
       </c>
       <c r="G55">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18151,25 +23725,22 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="D56">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="E56">
-        <v>0.08</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F56">
-        <v>0.30199999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G56">
-        <v>0.7</v>
-      </c>
-      <c r="H56">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18177,25 +23748,22 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="D57">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E57">
-        <v>0.13</v>
+        <v>0.217</v>
       </c>
       <c r="F57">
-        <v>0.217</v>
+        <v>0.78</v>
       </c>
       <c r="G57">
-        <v>0.78</v>
-      </c>
-      <c r="H57">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18203,25 +23771,22 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="D58">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="E58">
-        <v>0.27</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F58">
-        <v>0.52800000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="G58">
-        <v>0.47</v>
-      </c>
-      <c r="H58">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18229,26 +23794,1087 @@
         <v>65</v>
       </c>
       <c r="C59">
+        <v>0.24</v>
+      </c>
+      <c r="D59">
+        <v>-0.05</v>
+      </c>
+      <c r="E59">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.95</v>
+      </c>
+      <c r="G59">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.37</v>
+      </c>
+      <c r="F63">
+        <v>0.63</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>0.8</v>
+      </c>
+      <c r="D64">
+        <v>-0.03</v>
+      </c>
+      <c r="E64">
+        <v>0.61</v>
+      </c>
+      <c r="F64">
+        <v>0.39</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0.74</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.54</v>
+      </c>
+      <c r="F65">
+        <v>0.46</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>0.72</v>
+      </c>
+      <c r="D66">
+        <v>0.01</v>
+      </c>
+      <c r="E66">
+        <v>0.53</v>
+      </c>
+      <c r="F66">
+        <v>0.47</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>0.71</v>
+      </c>
+      <c r="D67">
+        <v>-0.12</v>
+      </c>
+      <c r="E67">
+        <v>0.42</v>
+      </c>
+      <c r="F67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G67">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>0.72</v>
+      </c>
+      <c r="D68">
+        <v>-0.01</v>
+      </c>
+      <c r="E68">
+        <v>0.51</v>
+      </c>
+      <c r="F68">
+        <v>0.49</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>0.62</v>
+      </c>
+      <c r="D69">
+        <v>-0.02</v>
+      </c>
+      <c r="E69">
+        <v>0.37</v>
+      </c>
+      <c r="F69">
+        <v>0.63</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>0.66</v>
+      </c>
+      <c r="D70">
+        <v>-0.06</v>
+      </c>
+      <c r="E70">
+        <v>0.39</v>
+      </c>
+      <c r="F70">
+        <v>0.61</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>0.65</v>
+      </c>
+      <c r="D71">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.37</v>
+      </c>
+      <c r="F71">
+        <v>0.63</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D72">
+        <v>0.04</v>
+      </c>
+      <c r="E72">
+        <v>0.33</v>
+      </c>
+      <c r="F72">
+        <v>0.67</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
         <v>0.2</v>
       </c>
-      <c r="D59">
+      <c r="D73">
+        <v>0.64</v>
+      </c>
+      <c r="E73">
+        <v>0.59</v>
+      </c>
+      <c r="F73">
+        <v>0.41</v>
+      </c>
+      <c r="G73">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>-0.06</v>
+      </c>
+      <c r="D74">
+        <v>0.95</v>
+      </c>
+      <c r="E74">
+        <v>0.84</v>
+      </c>
+      <c r="F74">
+        <v>0.16</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>0.69</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.48</v>
+      </c>
+      <c r="F75">
+        <v>0.52</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>0.7</v>
+      </c>
+      <c r="D76">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.44</v>
+      </c>
+      <c r="F76">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>0.73</v>
+      </c>
+      <c r="D77">
+        <v>-0.01</v>
+      </c>
+      <c r="E77">
+        <v>0.53</v>
+      </c>
+      <c r="F77">
+        <v>0.47</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78">
         <v>-0.02</v>
       </c>
-      <c r="E59">
+      <c r="D78">
+        <v>0.91</v>
+      </c>
+      <c r="E78">
+        <v>0.81</v>
+      </c>
+      <c r="F78">
+        <v>0.19</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>0.15</v>
+      </c>
+      <c r="D79">
+        <v>0.74</v>
+      </c>
+      <c r="E79">
+        <v>0.7</v>
+      </c>
+      <c r="F79">
+        <v>0.3</v>
+      </c>
+      <c r="G79">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>0.42</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.18</v>
+      </c>
+      <c r="F80">
+        <v>0.82</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>0.63</v>
+      </c>
+      <c r="D81">
+        <v>-0.08</v>
+      </c>
+      <c r="E81">
+        <v>0.34</v>
+      </c>
+      <c r="F81">
+        <v>0.66</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>0.66</v>
+      </c>
+      <c r="D82">
+        <v>-0.02</v>
+      </c>
+      <c r="E82">
+        <v>0.42</v>
+      </c>
+      <c r="F82">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>0.61</v>
+      </c>
+      <c r="D83">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.33</v>
+      </c>
+      <c r="F83">
+        <v>0.67</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>0.63</v>
+      </c>
+      <c r="D84">
+        <v>-0.05</v>
+      </c>
+      <c r="E84">
+        <v>0.36</v>
+      </c>
+      <c r="F84">
+        <v>0.64</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E85">
+        <v>0.42</v>
+      </c>
+      <c r="F85">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G85">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86">
+        <v>0.65</v>
+      </c>
+      <c r="D86">
+        <v>-0.09</v>
+      </c>
+      <c r="E86">
+        <v>0.36</v>
+      </c>
+      <c r="F86">
+        <v>0.64</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <v>0.54</v>
+      </c>
+      <c r="D87">
+        <v>0.08</v>
+      </c>
+      <c r="E87">
+        <v>0.34</v>
+      </c>
+      <c r="F87">
+        <v>0.66</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88">
+        <v>0.36</v>
+      </c>
+      <c r="D88">
+        <v>-0.05</v>
+      </c>
+      <c r="E88">
+        <v>0.11</v>
+      </c>
+      <c r="F88">
+        <v>0.89</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89">
+        <v>0.67</v>
+      </c>
+      <c r="D89">
+        <v>0.13</v>
+      </c>
+      <c r="E89">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F89">
+        <v>0.44</v>
+      </c>
+      <c r="G89">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>0.65</v>
+      </c>
+      <c r="D90">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.48</v>
+      </c>
+      <c r="F90">
+        <v>0.52</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>32</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91">
+        <v>0.4</v>
+      </c>
+      <c r="D91">
+        <v>-0.04</v>
+      </c>
+      <c r="E91">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F91">
+        <v>0.86</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>0.21</v>
+      </c>
+      <c r="D92">
+        <v>0.37</v>
+      </c>
+      <c r="E92">
+        <v>0.26</v>
+      </c>
+      <c r="F92">
+        <v>0.74</v>
+      </c>
+      <c r="G92">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>34</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93">
+        <v>0.23</v>
+      </c>
+      <c r="D93">
+        <v>0.38</v>
+      </c>
+      <c r="E93">
+        <v>0.3</v>
+      </c>
+      <c r="F93">
+        <v>0.7</v>
+      </c>
+      <c r="G93">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>35</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D94">
+        <v>0.02</v>
+      </c>
+      <c r="E94">
+        <v>0.36</v>
+      </c>
+      <c r="F94">
+        <v>0.64</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>36</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95">
+        <v>0.53</v>
+      </c>
+      <c r="D95">
+        <v>-0.02</v>
+      </c>
+      <c r="E95">
+        <v>0.27</v>
+      </c>
+      <c r="F95">
+        <v>0.73</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>37</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96">
+        <v>-0.01</v>
+      </c>
+      <c r="D96">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E96">
+        <v>0.32</v>
+      </c>
+      <c r="F96">
+        <v>0.68</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>39</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97">
+        <v>-0.06</v>
+      </c>
+      <c r="D97">
+        <v>0.94</v>
+      </c>
+      <c r="E97">
+        <v>0.82</v>
+      </c>
+      <c r="F97">
+        <v>0.18</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>40</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98">
+        <v>0.01</v>
+      </c>
+      <c r="D98">
+        <v>0.78</v>
+      </c>
+      <c r="E98">
+        <v>0.62</v>
+      </c>
+      <c r="F98">
+        <v>0.38</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>41</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>0.01</v>
+      </c>
+      <c r="D99">
+        <v>0.87</v>
+      </c>
+      <c r="E99">
+        <v>0.76</v>
+      </c>
+      <c r="F99">
+        <v>0.24</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>42</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100">
+        <v>0.04</v>
+      </c>
+      <c r="D100">
+        <v>0.54</v>
+      </c>
+      <c r="E100">
+        <v>0.32</v>
+      </c>
+      <c r="F100">
+        <v>0.68</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>43</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>0.54</v>
+      </c>
+      <c r="D101">
+        <v>0.18</v>
+      </c>
+      <c r="E101">
+        <v>0.44</v>
+      </c>
+      <c r="F101">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G101">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>45</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102">
+        <v>0.4</v>
+      </c>
+      <c r="D102">
+        <v>0.2</v>
+      </c>
+      <c r="E102">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F102">
+        <v>0.71</v>
+      </c>
+      <c r="G102">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>46</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103">
+        <v>0.62</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.38</v>
+      </c>
+      <c r="F103">
+        <v>0.62</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>47</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104">
+        <v>0.64</v>
+      </c>
+      <c r="D104">
+        <v>0.11</v>
+      </c>
+      <c r="E104">
+        <v>0.51</v>
+      </c>
+      <c r="F104">
+        <v>0.49</v>
+      </c>
+      <c r="G104">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>48</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <v>0.68</v>
+      </c>
+      <c r="D105">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E105">
+        <v>0.59</v>
+      </c>
+      <c r="F105">
+        <v>0.41</v>
+      </c>
+      <c r="G105">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>49</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106">
+        <v>0.04</v>
+      </c>
+      <c r="D106">
+        <v>0.76</v>
+      </c>
+      <c r="E106">
+        <v>0.61</v>
+      </c>
+      <c r="F106">
+        <v>0.39</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>52</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107">
+        <v>0.72</v>
+      </c>
+      <c r="D107">
+        <v>0.02</v>
+      </c>
+      <c r="E107">
+        <v>0.53</v>
+      </c>
+      <c r="F107">
+        <v>0.47</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>53</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108">
+        <v>0.33</v>
+      </c>
+      <c r="D108">
+        <v>-0.01</v>
+      </c>
+      <c r="E108">
+        <v>0.1</v>
+      </c>
+      <c r="F108">
+        <v>0.9</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>54</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109">
+        <v>0.6</v>
+      </c>
+      <c r="D109">
         <v>0.05</v>
       </c>
-      <c r="F59">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G59">
-        <v>0.95</v>
-      </c>
-      <c r="H59">
+      <c r="E109">
+        <v>0.39</v>
+      </c>
+      <c r="F109">
+        <v>0.61</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>55</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110">
+        <v>0.46</v>
+      </c>
+      <c r="D110">
+        <v>0.13</v>
+      </c>
+      <c r="E110">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F110">
+        <v>0.71</v>
+      </c>
+      <c r="G110">
         <v>1.2</v>
       </c>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>56</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111">
+        <v>0.37</v>
+      </c>
+      <c r="D111">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E111">
+        <v>0.22</v>
+      </c>
+      <c r="F111">
+        <v>0.78</v>
+      </c>
+      <c r="G111">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E1048576">
+  <conditionalFormatting sqref="C1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>

--- a/FA_loadings.xlsx
+++ b/FA_loadings.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Research/2 projects/Gen-Scale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{B33C9494-1135-43AC-A5E4-C0AC26A72C23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{548D0B55-779B-6544-B76E-5F923A58CDB2}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{B33C9494-1135-43AC-A5E4-C0AC26A72C23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4D8B72ED-9D41-F743-A371-D2D02F065D38}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{953D2B0A-C267-41D0-BE56-2FF7D0D72DD0}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{953D2B0A-C267-41D0-BE56-2FF7D0D72DD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final Model" sheetId="5" r:id="rId1"/>
-    <sheet name="5 Factors" sheetId="1" r:id="rId2"/>
-    <sheet name="4 Factors" sheetId="2" r:id="rId3"/>
-    <sheet name="3 Factors" sheetId="3" r:id="rId4"/>
-    <sheet name="2 Factors" sheetId="4" r:id="rId5"/>
+    <sheet name="Three Factor Final" sheetId="6" r:id="rId1"/>
+    <sheet name="Final Model" sheetId="5" r:id="rId2"/>
+    <sheet name="5 Factors" sheetId="1" r:id="rId3"/>
+    <sheet name="4 Factors" sheetId="2" r:id="rId4"/>
+    <sheet name="3 Factors" sheetId="3" r:id="rId5"/>
+    <sheet name="2 Factors" sheetId="4" r:id="rId6"/>
+    <sheet name="Questions" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="136">
   <si>
     <t>ML2</t>
   </si>
@@ -353,12 +356,102 @@
   <si>
     <t xml:space="preserve">I am comforted by the fact that my genes can/will be carried on in the future. </t>
   </si>
+  <si>
+    <t xml:space="preserve">I believe I will be remembered for a long time after I die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have contributed to the world in a unique way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel I have taken part in something bigger than myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am proud of my accomplishments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am confident in the legacy I will leave when I die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parts of my personality have rubbed off on other people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People who don't know me are impacted by my life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through my actions I have changed the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others would say I have impacted their lives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have lived a life which will be looked at with approval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can be proud of the life I have lived. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have lived a life exemplifying timeless virtues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have created things which will last a long time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My life has influenced the world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a hard time believing I will physically die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is long enough for me to do what I find meaningful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most important parts of me are immaterial and lasting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have influenced the future more than most people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I look forward to seeing what happens after death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My beliefs and values have been shared with others who will carry them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The death of the body is not tragic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have helped transmit ideas from the past to the future. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The future will be unique because of my impact. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have contributed to things which will be meaningful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is difficult to imagine my death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will leave a lasting legacy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With advancing medical technology, I expect to to live longer than people today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My offspring carry parts of me with them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I consider myself a part of something bigger which will last forever. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am comfortable with thinking about my death. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +486,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,10 +519,30 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -420,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,11 +564,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -847,11 +1034,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D479010E-F4C8-2643-9F92-8AAF389FC2AF}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f>VLOOKUP(A2,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Parts of my personality have rubbed off on other people. </v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>VLOOKUP(A3,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I am proud of my accomplishments. </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>VLOOKUP(A4,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Through my interactions with them, others have picked up parts of my personality. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>VLOOKUP(A5,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have taken part in activities or events which will impact the future. </v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>VLOOKUP(A6,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have contributed to causes that will impact the future. </v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>VLOOKUP(A7,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have taken part in organizations which impact the future. </v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>VLOOKUP(A8,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I feel I have taken part in something bigger than myself. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f>VLOOKUP(A9,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe others will have a positive view of me after I die. </v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>VLOOKUP(A10,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Others would say I have impacted their lives. </v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>VLOOKUP(A11,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have imparted knowledge and skills on to others. </v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>VLOOKUP(A12,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have contributed to things which will be meaningful. </v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>VLOOKUP(A13,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have lived a life which will be looked at with approval. </v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>VLOOKUP(A14,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I can be proud of the life I have lived. </v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>VLOOKUP(A15,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">There are many things I can do to leave my mark on the world. </v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>VLOOKUP(A16,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">My personality will live on in others. </v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>VLOOKUP(A17,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have cared for people and things which will last a long time. </v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>VLOOKUP(A18,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe the effects of my life will continue after I am gone. </v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>VLOOKUP(A19,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">My beliefs and values have been shared with others who will carry them. </v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>VLOOKUP(A20,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe I will be remembered for a long time after I die. </v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>VLOOKUP(A21,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I am comforted by knowing my loved ones will live on after me. </v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>VLOOKUP(A22,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Life is long enough for me to do what I find meaningful. </v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>VLOOKUP(A23,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I am comforted by the fact that my genes can/will be carried on in the future. </v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>VLOOKUP(A24,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">People who don't know me are impacted by my life. </v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>VLOOKUP(A25,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe I will live on in the afterlife. </v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>VLOOKUP(A26,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe in an afterlife. </v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>VLOOKUP(A27,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">My spirit or soul will live on after I physically die. </v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>VLOOKUP(A28,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Death is not the end. </v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>VLOOKUP(A29,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I am comforted by the thought of an afterlife. </v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>VLOOKUP(A30,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe in an immaterial soul or spirit. </v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>VLOOKUP(A31,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Death will not be the end of me. </v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>VLOOKUP(A32,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">When I physically die, other parts of me will live on. </v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>VLOOKUP(A33,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I look forward to seeing what happens after death. </v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>VLOOKUP(A34,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Parts of me are immortal. </v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>VLOOKUP(A35,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">The ideologies I believe in such as my religion, philosophies or politics will live on. </v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>VLOOKUP(A36,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">The most important parts of me are immaterial and lasting. </v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>VLOOKUP(A37,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe will not die. </v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>VLOOKUP(A38,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I don't entirely believe I will die. </v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>VLOOKUP(A39,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have a hard time believing I will physically die. </v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>VLOOKUP(A40,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I believe I will be reincarnated. </v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C41" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>VLOOKUP(A41,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have already accomplished what I want to in life. </v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="C42" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>VLOOKUP(A42,Questions!A:B,2,FALSE)</f>
+        <v xml:space="preserve">I have children or students which take after me. </v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:H42">
+    <sortCondition descending="1" ref="D37:D42"/>
+  </sortState>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D42">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0.299</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C4C1EA-BF7D-4C4B-8E43-416651725B49}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD34"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1856,7 +3208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55597480-3806-4FED-89D0-16AB6F92F7D4}">
   <dimension ref="A1:J309"/>
   <sheetViews>
@@ -10920,7 +12272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF74F16-B92C-4941-A11D-C95C0BBC90EB}">
   <dimension ref="A1:I271"/>
   <sheetViews>
@@ -17866,12 +19218,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586C92D-CD69-4B80-ADDA-D604C537C67F}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206:H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23574,7 +24926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3ACA45-228D-4985-8F72-D3244D8D1FDE}">
   <dimension ref="A1:G111"/>
   <sheetViews>
@@ -26014,4 +27366,500 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9146E97A-FE17-3243-9480-3C16ABA96501}">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A45" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="47" style="9" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="41.1640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FA_loadings.xlsx
+++ b/FA_loadings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac924\Documents\GitHub\Gen-Scale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Gen-Scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDED4F1B-77A4-44A0-8186-8E0B6BF7A0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="465" windowWidth="28800" windowHeight="17535"/>
+    <workbookView xWindow="735" yWindow="0" windowWidth="26550" windowHeight="15405" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Without Factor 4" sheetId="8" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="2 Factors" sheetId="4" r:id="rId7"/>
     <sheet name="Questions" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -450,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,37 +590,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1064,10 +1040,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="E145" sqref="E145:E146"/>
     </sheetView>
   </sheetViews>
@@ -4544,11 +4520,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>-0.299</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>-0.299</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4557,10 +4533,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -5698,22 +5674,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A37:H42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:H42">
     <sortCondition descending="1" ref="D37:D42"/>
   </sortState>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="B1:D42">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
-      <formula>0.299</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D42">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
-      <formula>-0.299</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5722,11 +5690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6716,14 +6684,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A27:I34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:I34">
     <sortCondition descending="1" ref="E27:E34"/>
   </sortState>
   <conditionalFormatting sqref="B1:E34">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6732,11 +6700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B59"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G309" activeCellId="2" sqref="G299 G303 G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15783,10 +15751,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15796,7 +15764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView topLeftCell="A237" workbookViewId="0">
@@ -22729,10 +22697,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22742,10 +22710,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
+    <sheetView topLeftCell="A219" workbookViewId="0">
       <selection activeCell="B206" sqref="B206:H246"/>
     </sheetView>
   </sheetViews>
@@ -28437,10 +28405,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28450,7 +28418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -30880,10 +30848,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-0.299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.299</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30892,11 +30860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A45" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31290,7 +31258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -31379,7 +31347,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
